--- a/eagle projects/Z+ Sun Sensor Board/BOM_Z+SUNSENSE.xlsx
+++ b/eagle projects/Z+ Sun Sensor Board/BOM_Z+SUNSENSE.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\EAGLE\projects\adcs_hardware\eagle projects\Z+ Sun Sensor Board\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{88CCD1A3-4A86-4E0E-85D9-D72A005DEA10}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F7BF142-E532-4348-967C-1CB5DC022836}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B5569873-42A2-496E-A580-B589B284F195}"/>
+    <workbookView xWindow="28680" yWindow="1005" windowWidth="29040" windowHeight="15840" xr2:uid="{B5569873-42A2-496E-A580-B589B284F195}"/>
   </bookViews>
   <sheets>
     <sheet name="ZPlusSunSensorBoard" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">ZPlusSunSensorBoard!$B$3:$I$19</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">ZPlusSunSensorBoard!$B$3:$H$19</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="89">
   <si>
     <t>Qty</t>
   </si>
@@ -54,33 +54,21 @@
     <t>Value</t>
   </si>
   <si>
-    <t>Package</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
     <t>MPN</t>
   </si>
   <si>
-    <t>PINHD-1X6</t>
-  </si>
-  <si>
     <t>JP3</t>
   </si>
   <si>
     <t>PIN HEADER</t>
   </si>
   <si>
-    <t>TRM_BLK_1X2</t>
-  </si>
-  <si>
     <t>J4, J5, J6</t>
   </si>
   <si>
-    <t>C-EUC0402</t>
-  </si>
-  <si>
     <t>C0402</t>
   </si>
   <si>
@@ -93,9 +81,6 @@
     <t>0R</t>
   </si>
   <si>
-    <t>R-US_R0805</t>
-  </si>
-  <si>
     <t>R0805</t>
   </si>
   <si>
@@ -105,9 +90,6 @@
     <t>10k</t>
   </si>
   <si>
-    <t>R-US_R0402</t>
-  </si>
-  <si>
     <t>R0402</t>
   </si>
   <si>
@@ -135,9 +117,6 @@
     <t>4.7u</t>
   </si>
   <si>
-    <t>C-EUC0805</t>
-  </si>
-  <si>
     <t>C0805</t>
   </si>
   <si>
@@ -177,9 +156,6 @@
     <t>U4</t>
   </si>
   <si>
-    <t>SUN_SENSOR_MOUNT</t>
-  </si>
-  <si>
     <t>A1</t>
   </si>
   <si>
@@ -195,9 +171,6 @@
     <t>LORIS ADCS</t>
   </si>
   <si>
-    <t xml:space="preserve">BOARD: Z- SUN SENSOR BOARD </t>
-  </si>
-  <si>
     <t>BILL OF MATERIALS</t>
   </si>
   <si>
@@ -336,24 +309,20 @@
     <t>REV A</t>
   </si>
   <si>
-    <t>Date: 2021.01.28</t>
+    <t>Date: 2021.02.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOARD: Z+ SUN SENSE BOARD </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -372,25 +341,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="20"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -408,29 +365,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Bad" xfId="1" builtinId="27"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -465,7 +414,7 @@
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{C04FF819-7649-49B6-8173-61EB4D24C17C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="26" unboundColumnsLeft="1">
-    <queryTableFields count="9">
+    <queryTableFields count="8">
       <queryTableField id="22" dataBound="0" tableColumnId="22"/>
       <queryTableField id="1" name="Qty" tableColumnId="1"/>
       <queryTableField id="24" dataBound="0" tableColumnId="23"/>
@@ -473,10 +422,9 @@
       <queryTableField id="2" name="Value" tableColumnId="2"/>
       <queryTableField id="4" name="Package" tableColumnId="4"/>
       <queryTableField id="6" name="Description" tableColumnId="6"/>
-      <queryTableField id="3" name="Device" tableColumnId="3"/>
       <queryTableField id="7" name="DATASHEET_URL" tableColumnId="7"/>
     </queryTableFields>
-    <queryTableDeletedFields count="14">
+    <queryTableDeletedFields count="15">
       <deletedField name="Column1"/>
       <deletedField name="DESCRIPTION.1"/>
       <deletedField name="FAMILY_NAME"/>
@@ -491,27 +439,27 @@
       <deletedField name="PIN_COUNT"/>
       <deletedField name="POPULARITY"/>
       <deletedField name="SPICEPREFIX"/>
+      <deletedField name="Device"/>
     </queryTableDeletedFields>
   </queryTableRefresh>
 </queryTable>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A0C7FB6B-3D83-44F2-AF43-7530D082B417}" name="ZPlusSunSensorBoard" displayName="ZPlusSunSensorBoard" ref="A3:I19" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A3:I19" xr:uid="{ABD8814C-45BB-4E4C-8F20-96C921043060}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:I19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A0C7FB6B-3D83-44F2-AF43-7530D082B417}" name="ZPlusSunSensorBoard" displayName="ZPlusSunSensorBoard" ref="A3:H19" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A3:H19" xr:uid="{ABD8814C-45BB-4E4C-8F20-96C921043060}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:H19">
     <sortCondition ref="D3:D19"/>
   </sortState>
-  <tableColumns count="9">
-    <tableColumn id="22" xr3:uid="{5EFEE81B-EC17-44E1-91B6-466BF4467568}" uniqueName="22" name="Item" queryTableFieldId="22" dataDxfId="3"/>
+  <tableColumns count="8">
+    <tableColumn id="22" xr3:uid="{5EFEE81B-EC17-44E1-91B6-466BF4467568}" uniqueName="22" name="Item" queryTableFieldId="22" dataDxfId="5"/>
     <tableColumn id="1" xr3:uid="{D81A36AB-FA11-4E08-8389-CD7385431223}" uniqueName="1" name="Qty" queryTableFieldId="1"/>
     <tableColumn id="23" xr3:uid="{EDEA67AC-EF9A-4524-9C0C-B4B4C92C9172}" uniqueName="23" name="MPN" queryTableFieldId="24"/>
-    <tableColumn id="5" xr3:uid="{85E5E748-FEF9-41AD-93F5-29C80241E7CC}" uniqueName="5" name="Reference Designator" queryTableFieldId="5" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{6CBA924F-AD3A-4BD1-A356-3CC926A8266D}" uniqueName="2" name="Value" queryTableFieldId="2" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{33D68BBF-332F-4CB3-BEA5-6D55C71ED8E2}" uniqueName="4" name="Footprint" queryTableFieldId="4" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{297941BE-ED54-4B94-997D-6860BA177A6F}" uniqueName="6" name="Description" queryTableFieldId="6" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{8427F45B-7D48-482F-8637-CEE6D3F1DEAF}" uniqueName="3" name="Package" queryTableFieldId="3" dataDxfId="0" dataCellStyle="Bad"/>
-    <tableColumn id="7" xr3:uid="{E86A6A8B-F6CD-42E3-87EB-773118268389}" uniqueName="7" name="Datasheet" queryTableFieldId="7" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{85E5E748-FEF9-41AD-93F5-29C80241E7CC}" uniqueName="5" name="Reference Designator" queryTableFieldId="5" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{6CBA924F-AD3A-4BD1-A356-3CC926A8266D}" uniqueName="2" name="Value" queryTableFieldId="2" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{33D68BBF-332F-4CB3-BEA5-6D55C71ED8E2}" uniqueName="4" name="Footprint" queryTableFieldId="4" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{297941BE-ED54-4B94-997D-6860BA177A6F}" uniqueName="6" name="Description" queryTableFieldId="6" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{E86A6A8B-F6CD-42E3-87EB-773118268389}" uniqueName="7" name="Datasheet" queryTableFieldId="7" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -814,10 +762,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F22CE5B-8FD6-447E-8A5C-41F8129F8CB3}">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -829,74 +777,68 @@
     <col min="5" max="5" width="21.6640625" customWidth="1"/>
     <col min="6" max="6" width="18.33203125" customWidth="1"/>
     <col min="7" max="7" width="25.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.33203125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="28.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="57.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="57.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="8" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A1" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="6"/>
-    </row>
-    <row r="2" spans="1:9" s="8" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A2" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="6"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="5" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" spans="1:8" s="5" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E3" t="s">
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -904,28 +846,25 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="G4" t="s">
-        <v>60</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="I4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="H4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -933,28 +872,25 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="H5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -962,28 +898,25 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+      <c r="H6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>4</v>
       </c>
@@ -991,28 +924,25 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+      <c r="H7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1020,28 +950,25 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+      <c r="H8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1049,28 +976,25 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E9" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="F9" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="G9" t="s">
-        <v>57</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+      <c r="H9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>7</v>
       </c>
@@ -1078,28 +1002,25 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E10" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="F10" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>8</v>
       </c>
@@ -1107,28 +1028,25 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+      <c r="H11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>9</v>
       </c>
@@ -1136,28 +1054,25 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+      <c r="H12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>10</v>
       </c>
@@ -1165,28 +1080,25 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I13" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="H13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>11</v>
       </c>
@@ -1194,28 +1106,25 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I14" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+      <c r="H14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>12</v>
       </c>
@@ -1223,28 +1132,25 @@
         <v>3</v>
       </c>
       <c r="C15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H15" t="s">
         <v>82</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>13</v>
       </c>
@@ -1252,28 +1158,25 @@
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I16" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+      <c r="H16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>14</v>
       </c>
@@ -1281,28 +1184,25 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G17" t="s">
-        <v>71</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+      <c r="H17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>15</v>
       </c>
@@ -1310,28 +1210,25 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G18" t="s">
-        <v>72</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I18" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+      <c r="H18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>16</v>
       </c>
@@ -1339,25 +1236,22 @@
         <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G19" t="s">
-        <v>73</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I19" t="s">
-        <v>94</v>
+        <v>64</v>
+      </c>
+      <c r="H19" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
